--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26856</v>
+        <v>28260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49203</v>
+        <v>50611</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05415614369394144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03869660348083991</v>
+        <v>0.04071981762968523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07089585090729025</v>
+        <v>0.07292483352994049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -765,19 +765,19 @@
         <v>63484</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49532</v>
+        <v>50321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78949</v>
+        <v>79896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09222642457472276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07195806568050868</v>
+        <v>0.07310429097274171</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1146930709312015</v>
+        <v>0.1160679713127196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -786,19 +786,19 @@
         <v>101069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83950</v>
+        <v>84348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122001</v>
+        <v>121231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07311333083054053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06072968523512796</v>
+        <v>0.06101758917910114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08825563340852233</v>
+        <v>0.08769864903750986</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>656427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>644809</v>
+        <v>643401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667156</v>
+        <v>665752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9458438563060586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9291041490927097</v>
+        <v>0.9270751664700596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9613033965191596</v>
+        <v>0.9592801823703149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>631</v>
@@ -836,19 +836,19 @@
         <v>624867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>609402</v>
+        <v>608455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>638819</v>
+        <v>638030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9077735754252773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8853069290687985</v>
+        <v>0.8839320286872804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9280419343194913</v>
+        <v>0.9268957090272583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1275</v>
@@ -857,19 +857,19 @@
         <v>1281294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1260362</v>
+        <v>1261132</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1298413</v>
+        <v>1298015</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9268866691694595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9117443665914778</v>
+        <v>0.9123013509624901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9392703147648725</v>
+        <v>0.9389824108208988</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>47061</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33845</v>
+        <v>34653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61880</v>
+        <v>61764</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04892994426818466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03518966969146987</v>
+        <v>0.03602977500213501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06433818710974577</v>
+        <v>0.0642174912202602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -982,19 +982,19 @@
         <v>110792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91625</v>
+        <v>91252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131259</v>
+        <v>130483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1144085062985327</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09461546954868695</v>
+        <v>0.09423023440576571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1355433704864944</v>
+        <v>0.1347416189501013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -1003,19 +1003,19 @@
         <v>157853</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134087</v>
+        <v>135500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182749</v>
+        <v>184420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08178105441325595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0694683783014006</v>
+        <v>0.07020022536057163</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09467930311499931</v>
+        <v>0.09554503687400365</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>914739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>899920</v>
+        <v>900036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>927955</v>
+        <v>927147</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9510700557318154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9356618128902542</v>
+        <v>0.9357825087797388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9648103303085299</v>
+        <v>0.9639702249978647</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>806</v>
@@ -1053,19 +1053,19 @@
         <v>857601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>837134</v>
+        <v>837910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>876768</v>
+        <v>877141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8855914937014673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8644566295135055</v>
+        <v>0.8652583810498987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9053845304513131</v>
+        <v>0.9057697655942343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1658</v>
@@ -1074,19 +1074,19 @@
         <v>1772340</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1747444</v>
+        <v>1745773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1796106</v>
+        <v>1794693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.918218945586744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9053206968850008</v>
+        <v>0.9044549631259965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9305316216985995</v>
+        <v>0.9297997746394284</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18499</v>
+        <v>19363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40742</v>
+        <v>41909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04271496325953162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02726409792838866</v>
+        <v>0.02853730184470856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06004646191174694</v>
+        <v>0.06176565430853398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -1199,19 +1199,19 @@
         <v>83345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67987</v>
+        <v>67805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100389</v>
+        <v>100075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1218784648239113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09941911714319847</v>
+        <v>0.09915305009096076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1468021636122606</v>
+        <v>0.1463427142492613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -1220,19 +1220,19 @@
         <v>112328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94262</v>
+        <v>93228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134913</v>
+        <v>132008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08245163362889749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06919088109936501</v>
+        <v>0.06843209141267033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09902969253845126</v>
+        <v>0.09689714335552478</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>649527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637767</v>
+        <v>636600</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660010</v>
+        <v>659146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9572850367404684</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9399535380882531</v>
+        <v>0.938234345691466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9727359020716114</v>
+        <v>0.9714626981552915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -1270,19 +1270,19 @@
         <v>600496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583452</v>
+        <v>583766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>615854</v>
+        <v>616036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8781215351760887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8531978363877396</v>
+        <v>0.8536572857507387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9005808828568017</v>
+        <v>0.9008469499090394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1223</v>
@@ -1291,19 +1291,19 @@
         <v>1250022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1227437</v>
+        <v>1230342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1268088</v>
+        <v>1269122</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9175483663711025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9009703074615488</v>
+        <v>0.9031028566444752</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.930809118900635</v>
+        <v>0.9315679085873296</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>47397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35993</v>
+        <v>35854</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62779</v>
+        <v>61686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05030339891405447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03820042567489725</v>
+        <v>0.0380524807487068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06662902575174247</v>
+        <v>0.06546870666114306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1416,19 +1416,19 @@
         <v>119185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99551</v>
+        <v>99247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139444</v>
+        <v>141732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1147541970578819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0958500076368743</v>
+        <v>0.09555744538825883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1342594870447763</v>
+        <v>0.1364624899493742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -1437,19 +1437,19 @@
         <v>166582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144261</v>
+        <v>144308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192955</v>
+        <v>191769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08409692688961412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0728285193906273</v>
+        <v>0.07285215682779392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09741078217162499</v>
+        <v>0.09681235660076609</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>894825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879443</v>
+        <v>880536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>906229</v>
+        <v>906368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9496966010859456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9333709742482574</v>
+        <v>0.9345312933388569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9617995743251027</v>
+        <v>0.9619475192512932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>883</v>
@@ -1487,19 +1487,19 @@
         <v>919427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>899168</v>
+        <v>896880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>939061</v>
+        <v>939365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8852458029421181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8657405129552237</v>
+        <v>0.8635375100506255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9041499923631258</v>
+        <v>0.9044425546117412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1825</v>
@@ -1508,19 +1508,19 @@
         <v>1814252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1787879</v>
+        <v>1789065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1836573</v>
+        <v>1836526</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9159030731103859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.902589217828375</v>
+        <v>0.9031876433992339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9271714806093726</v>
+        <v>0.927147843172206</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>161025</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04914487340575364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>367</v>
@@ -1633,19 +1633,19 @@
         <v>376807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1115078897795158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>530</v>
@@ -1654,19 +1654,19 @@
         <v>537832</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08080730570318109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3115518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3089397</v>
+        <v>3090555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3138688</v>
+        <v>3136644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9508551265942463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9428830806069589</v>
+        <v>0.943236380915237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.957926739155726</v>
+        <v>0.9573029905317213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2930</v>
@@ -1704,19 +1704,19 @@
         <v>3002390</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2963874</v>
+        <v>2962750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3036411</v>
+        <v>3036695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8884921102204841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8770941426423199</v>
+        <v>0.8767615245597572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8985599845950456</v>
+        <v>0.8986439958080475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5981</v>
@@ -1725,19 +1725,19 @@
         <v>6117909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6067491</v>
+        <v>6071982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6160227</v>
+        <v>6166184</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9191926942968189</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9116176450411918</v>
+        <v>0.9122923438257707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9255509601424271</v>
+        <v>0.926445889929212</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>45203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33687</v>
+        <v>32514</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61252</v>
+        <v>59282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06425704112761306</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04788692314458742</v>
+        <v>0.04621990120932062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08707078991670054</v>
+        <v>0.0842713497927982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -2090,19 +2090,19 @@
         <v>110760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93027</v>
+        <v>92338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130771</v>
+        <v>130406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1588979645179275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1334579482334832</v>
+        <v>0.13246947707715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1876062166446948</v>
+        <v>0.1870823530404062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -2111,19 +2111,19 @@
         <v>155963</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134140</v>
+        <v>130030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>183000</v>
+        <v>177647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1113606195969856</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09577845255106465</v>
+        <v>0.09284420387687319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1306661309347774</v>
+        <v>0.126843584211087</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>658266</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642217</v>
+        <v>644187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669782</v>
+        <v>670955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9357429588723869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9129292100832995</v>
+        <v>0.9157286502072018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9521130768554126</v>
+        <v>0.9537800987906794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>544</v>
@@ -2161,19 +2161,19 @@
         <v>586290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>566279</v>
+        <v>566644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604023</v>
+        <v>604712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8411020354820725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8123937833553052</v>
+        <v>0.8129176469595936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8665420517665168</v>
+        <v>0.8675305229228498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1175</v>
@@ -2182,19 +2182,19 @@
         <v>1244556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1217519</v>
+        <v>1222872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1266379</v>
+        <v>1270489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8886393804030144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8693338690652226</v>
+        <v>0.8731564157889129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9042215474489352</v>
+        <v>0.9071557961231264</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>69634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53386</v>
+        <v>54720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88184</v>
+        <v>89056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06840663221995566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05244448286218951</v>
+        <v>0.05375507297474228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08662953339545124</v>
+        <v>0.08748614636937047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -2307,19 +2307,19 @@
         <v>160973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137420</v>
+        <v>137072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185428</v>
+        <v>186509</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.155954128077472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.133135568000718</v>
+        <v>0.1327978646056104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1796466426662008</v>
+        <v>0.1806935813469028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -2328,19 +2328,19 @@
         <v>230608</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200569</v>
+        <v>201355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>261579</v>
+        <v>258710</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1124843614076794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09783234481082491</v>
+        <v>0.09821591722405813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1275913987614116</v>
+        <v>0.1261919934262653</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>948313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929763</v>
+        <v>928891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964561</v>
+        <v>963227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9315933677800443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9133704666045488</v>
+        <v>0.9125138536306296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9475555171378105</v>
+        <v>0.9462449270252576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>794</v>
@@ -2378,19 +2378,19 @@
         <v>871211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>846756</v>
+        <v>845675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894764</v>
+        <v>895112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.844045871922528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8203533573337992</v>
+        <v>0.8193064186530971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.866864431999282</v>
+        <v>0.8672021353943895</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1667</v>
@@ -2399,19 +2399,19 @@
         <v>1819523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1788552</v>
+        <v>1791421</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1849562</v>
+        <v>1848776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8875156385923206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8724086012385884</v>
+        <v>0.8738080065737349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9021676551891751</v>
+        <v>0.9017840827759419</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>40964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28684</v>
+        <v>27777</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58162</v>
+        <v>58795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05406857943525094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03786109719640058</v>
+        <v>0.036663729734699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07676841190921203</v>
+        <v>0.07760464836738158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -2524,19 +2524,19 @@
         <v>115450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95701</v>
+        <v>94970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137872</v>
+        <v>139603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1485510351199298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1231396464999205</v>
+        <v>0.1221990326963681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1774022509264586</v>
+        <v>0.1796285822108537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -2545,19 +2545,19 @@
         <v>156414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132200</v>
+        <v>134168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>183868</v>
+        <v>184148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1019115796945707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08613549093544665</v>
+        <v>0.08741738696467034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1197994893536209</v>
+        <v>0.119981855294668</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>716659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>699461</v>
+        <v>698828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>728939</v>
+        <v>729846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9459314205647491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9232315880907881</v>
+        <v>0.9223953516326185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9621389028035995</v>
+        <v>0.9633362702653012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>601</v>
@@ -2595,19 +2595,19 @@
         <v>661724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>639302</v>
+        <v>637571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681473</v>
+        <v>682204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8514489648800702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8225977490735413</v>
+        <v>0.8203714177891465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8768603535000794</v>
+        <v>0.8778009673036319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -2616,19 +2616,19 @@
         <v>1378383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1350929</v>
+        <v>1350649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1402597</v>
+        <v>1400629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8980884203054292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8802005106463791</v>
+        <v>0.8800181447053331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9138645090645533</v>
+        <v>0.9125826130353299</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>71880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55814</v>
+        <v>55833</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90963</v>
+        <v>91847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07584325101482971</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05889146706386162</v>
+        <v>0.05891127565316893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09597875140251635</v>
+        <v>0.09691200165071412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -2741,19 +2741,19 @@
         <v>167643</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145580</v>
+        <v>143916</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192793</v>
+        <v>193041</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1593712705905493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1383971696074078</v>
+        <v>0.1368149534949074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1832806033819149</v>
+        <v>0.1835161337214759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -2762,19 +2762,19 @@
         <v>239522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209694</v>
+        <v>211782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269049</v>
+        <v>272262</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1197827557774155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1048659125274041</v>
+        <v>0.1059101409771869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.134548967420666</v>
+        <v>0.1361554400819099</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>875859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>856776</v>
+        <v>855892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>891925</v>
+        <v>891906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9241567489851703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9040212485974839</v>
+        <v>0.9030879983492863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9411085329361385</v>
+        <v>0.9410887243468311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>842</v>
@@ -2812,19 +2812,19 @@
         <v>884258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>859108</v>
+        <v>858860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>906321</v>
+        <v>907985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8406287294094508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.816719396618085</v>
+        <v>0.8164838662785241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8616028303925921</v>
+        <v>0.8631850465050925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1688</v>
@@ -2833,19 +2833,19 @@
         <v>1760118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1730591</v>
+        <v>1727378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1789946</v>
+        <v>1787858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8802172442225844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.865451032579334</v>
+        <v>0.8638445599180901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8951340874725958</v>
+        <v>0.8940898590228131</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>227680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06644152872346339</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>517</v>
@@ -2958,19 +2958,19 @@
         <v>554826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1559240591775809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>719</v>
@@ -2979,19 +2979,19 @@
         <v>782506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1120252785224281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3199099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3163960</v>
+        <v>3168774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3227578</v>
+        <v>3229853</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9335584712765366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9233044378800828</v>
+        <v>0.9247090873901901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9418693600883646</v>
+        <v>0.9425333103289573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2781</v>
@@ -3029,19 +3029,19 @@
         <v>3003483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2955859</v>
+        <v>2958863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3047852</v>
+        <v>3048702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8440759408224191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8306921239933603</v>
+        <v>0.8315361469978008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.856544989277619</v>
+        <v>0.8567839071298843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5788</v>
@@ -3050,19 +3050,19 @@
         <v>6202582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6149621</v>
+        <v>6148974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6254753</v>
+        <v>6255160</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8879747214775718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8803927820207003</v>
+        <v>0.8803001047684953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8954436904332148</v>
+        <v>0.8955019031845277</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>36392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25517</v>
+        <v>25332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50083</v>
+        <v>48091</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05392944422261408</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03781439544095285</v>
+        <v>0.03753995383519574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07421948965740545</v>
+        <v>0.07126698961086529</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -3415,19 +3415,19 @@
         <v>118906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99209</v>
+        <v>99572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138656</v>
+        <v>141603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1767221393814611</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1474479360329017</v>
+        <v>0.1479873833424686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2060765727063011</v>
+        <v>0.2104554750126757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -3436,19 +3436,19 @@
         <v>155297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132346</v>
+        <v>133651</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182791</v>
+        <v>179954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.115236451587486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09820568567052741</v>
+        <v>0.09917388286013998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1356379372441805</v>
+        <v>0.1335329664089233</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>638408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>624717</v>
+        <v>626709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>649283</v>
+        <v>649468</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.946070555777386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9257805103425936</v>
+        <v>0.9287330103891347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9621856045590469</v>
+        <v>0.9624600461648043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>551</v>
@@ -3486,19 +3486,19 @@
         <v>553933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>534183</v>
+        <v>531236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>573630</v>
+        <v>573267</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8232778606185389</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7939234272936989</v>
+        <v>0.7895445249873241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8525520639670984</v>
+        <v>0.8520126166575313</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1167</v>
@@ -3507,19 +3507,19 @@
         <v>1192342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1164848</v>
+        <v>1167685</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1215293</v>
+        <v>1213988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8847635484125139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8643620627558195</v>
+        <v>0.8664670335910769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9017943143294725</v>
+        <v>0.90082611713986</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>58434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45105</v>
+        <v>45051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74978</v>
+        <v>74305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0571518329668335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04411561216831125</v>
+        <v>0.04406267431674249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07333344885069058</v>
+        <v>0.07267510292676661</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -3632,19 +3632,19 @@
         <v>141298</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120391</v>
+        <v>118946</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166040</v>
+        <v>168009</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1354836833961757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1154370573651227</v>
+        <v>0.1140517559539163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1592082930810467</v>
+        <v>0.161095842353802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -3653,19 +3653,19 @@
         <v>199732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>173410</v>
+        <v>171514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227835</v>
+        <v>227416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09670616654412198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08396193812348345</v>
+        <v>0.08304377390822018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1103132021203796</v>
+        <v>0.1101105979166351</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>963997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>947453</v>
+        <v>948126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>977326</v>
+        <v>977380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9428481670331665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9266665511493092</v>
+        <v>0.9273248970732334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9558843878316881</v>
+        <v>0.9559373256832571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>851</v>
@@ -3703,19 +3703,19 @@
         <v>901615</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>876873</v>
+        <v>874904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>922522</v>
+        <v>923967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8645163166038243</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8407917069189533</v>
+        <v>0.838904157646198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8845629426348772</v>
+        <v>0.8859482440460839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1747</v>
@@ -3724,19 +3724,19 @@
         <v>1865612</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1837509</v>
+        <v>1837928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1891934</v>
+        <v>1893830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.903293833455878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8896867978796204</v>
+        <v>0.889889402083365</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9160380618765165</v>
+        <v>0.9169562260917801</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>47209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35337</v>
+        <v>35217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61907</v>
+        <v>60975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06215328086214726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04652412072317987</v>
+        <v>0.04636591920731734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08150452750901928</v>
+        <v>0.08027812000072522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -3849,19 +3849,19 @@
         <v>109260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91813</v>
+        <v>89986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131529</v>
+        <v>131016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1391829706339897</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1169581339894271</v>
+        <v>0.1146308063912423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1675510262666973</v>
+        <v>0.1668970700772665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -3870,19 +3870,19 @@
         <v>156469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133271</v>
+        <v>130987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181782</v>
+        <v>178698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1013029559000436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08628403830916268</v>
+        <v>0.08480535632101559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1176913112504209</v>
+        <v>0.1156951363861747</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>712343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697645</v>
+        <v>698577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>724215</v>
+        <v>724335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9378467191378528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9184954724909808</v>
+        <v>0.9197218799992748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9534758792768201</v>
+        <v>0.9536340807926827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -3920,19 +3920,19 @@
         <v>675751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653482</v>
+        <v>653995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693198</v>
+        <v>695025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8608170293660103</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8324489737333027</v>
+        <v>0.8331029299227336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8830418660105729</v>
+        <v>0.8853691936087578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1289</v>
@@ -3941,19 +3941,19 @@
         <v>1388094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1362781</v>
+        <v>1365865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1411292</v>
+        <v>1413576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8986970440999563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8823086887495791</v>
+        <v>0.8843048636138253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9137159616908374</v>
+        <v>0.9151946436789847</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>70664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56510</v>
+        <v>54821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88621</v>
+        <v>87188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07536937425844968</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06027347963114886</v>
+        <v>0.05847148162286746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09452218188151444</v>
+        <v>0.09299364533269103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -4066,19 +4066,19 @@
         <v>168868</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146314</v>
+        <v>144213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>199000</v>
+        <v>194601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.161785172260324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.14017706680999</v>
+        <v>0.1381645518033965</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.190652909568698</v>
+        <v>0.1864388500082389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -4087,19 +4087,19 @@
         <v>239532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210534</v>
+        <v>206689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273038</v>
+        <v>270520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1208934754404564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1062581652916896</v>
+        <v>0.1043172556920758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1378044532137353</v>
+        <v>0.1365334674989504</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>866903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>848946</v>
+        <v>850379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>881057</v>
+        <v>882746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9246306257415503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9054778181184855</v>
+        <v>0.9070063546673089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9397265203688512</v>
+        <v>0.9415285183771327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>812</v>
@@ -4137,19 +4137,19 @@
         <v>874911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844779</v>
+        <v>849178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>897465</v>
+        <v>899566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8382148277396759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8093470904313019</v>
+        <v>0.8135611499917611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.85982293319001</v>
+        <v>0.8618354481966034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1674</v>
@@ -4158,19 +4158,19 @@
         <v>1741814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1708308</v>
+        <v>1710826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1770812</v>
+        <v>1774657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8791065245595436</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8621955467862648</v>
+        <v>0.8634665325010504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8937418347083105</v>
+        <v>0.8956827443079244</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>212698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06266233043007094</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>486</v>
@@ -4283,19 +4283,19 @@
         <v>538331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1518761437633046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>692</v>
@@ -4304,19 +4304,19 @@
         <v>751029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1082347492915023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3181652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3148964</v>
+        <v>3151794</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3209266</v>
+        <v>3208072</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.937337669569929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9277075020638413</v>
+        <v>0.9285412113995445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9454729458175808</v>
+        <v>0.9451211055538215</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2852</v>
@@ -4354,19 +4354,19 @@
         <v>3006211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2959944</v>
+        <v>2958182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3049082</v>
+        <v>3049410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8481238562366954</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8350710217379881</v>
+        <v>0.834573935494989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8602187793318392</v>
+        <v>0.86031135701191</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5877</v>
@@ -4375,19 +4375,19 @@
         <v>6187863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6133320</v>
+        <v>6134241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6241130</v>
+        <v>6240337</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8917652507084977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8839047633349951</v>
+        <v>0.8840375931331239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8994418658324925</v>
+        <v>0.8993275241103822</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>70255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57206</v>
+        <v>56206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88110</v>
+        <v>88433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1017139172678013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08282231495434605</v>
+        <v>0.08137398021203322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1275644243808041</v>
+        <v>0.1280314111207908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -4740,19 +4740,19 @@
         <v>129880</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115204</v>
+        <v>115312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145689</v>
+        <v>146825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.176904260668303</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1569154496847336</v>
+        <v>0.1570619424439824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1984379022192488</v>
+        <v>0.1999845258529495</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>347</v>
@@ -4761,19 +4761,19 @@
         <v>200134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179136</v>
+        <v>179523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221733</v>
+        <v>224618</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1404560351177073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1257193198637316</v>
+        <v>0.1259909232320751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1556141432681922</v>
+        <v>0.1576390406175536</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>620455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>602600</v>
+        <v>602277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>633504</v>
+        <v>634504</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8982860827321988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8724355756191959</v>
+        <v>0.8719685888792092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.917177685045654</v>
+        <v>0.9186260197879668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>982</v>
@@ -4811,19 +4811,19 @@
         <v>604300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>588491</v>
+        <v>587355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>618976</v>
+        <v>618868</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8230957393316968</v>
+        <v>0.823095739331697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8015620977807506</v>
+        <v>0.8000154741470505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8430845503152664</v>
+        <v>0.8429380575560178</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1624</v>
@@ -4832,19 +4832,19 @@
         <v>1224755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1203156</v>
+        <v>1200271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1245753</v>
+        <v>1245366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8595439648822927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8443858567318079</v>
+        <v>0.8423609593824465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8742806801362685</v>
+        <v>0.8740090767679249</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>70343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55975</v>
+        <v>55253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86683</v>
+        <v>87427</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06706206405335834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05336428376927711</v>
+        <v>0.05267606383546058</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08264005994086615</v>
+        <v>0.08334954250471142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>307</v>
@@ -4957,19 +4957,19 @@
         <v>189313</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167955</v>
+        <v>171174</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>209422</v>
+        <v>211656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1766845900379565</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1567511301616397</v>
+        <v>0.1597553907569692</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1954518251734218</v>
+        <v>0.1975376373965544</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -4978,19 +4978,19 @@
         <v>259655</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233891</v>
+        <v>230053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287918</v>
+        <v>287055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1224564204685323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1103053907916508</v>
+        <v>0.1084953319319289</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.13578534307269</v>
+        <v>0.1353783827140357</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>978574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>962234</v>
+        <v>961490</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992942</v>
+        <v>993664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9329379359466418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9173599400591339</v>
+        <v>0.9166504574952887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9466357162307233</v>
+        <v>0.9473239361645394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1210</v>
@@ -5028,19 +5028,19 @@
         <v>882161</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>862052</v>
+        <v>859818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>903519</v>
+        <v>900300</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8233154099620434</v>
+        <v>0.8233154099620433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8045481748265785</v>
+        <v>0.8024623626034456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8432488698383604</v>
+        <v>0.8402446092430307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2091</v>
@@ -5049,19 +5049,19 @@
         <v>1860736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1832473</v>
+        <v>1833336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1886500</v>
+        <v>1890338</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8775435795314676</v>
+        <v>0.8775435795314677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8642146569273101</v>
+        <v>0.8646216172859642</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8896946092083493</v>
+        <v>0.8915046680680709</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>68810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54119</v>
+        <v>54838</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85945</v>
+        <v>85609</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08568292337580347</v>
+        <v>0.08568292337580348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06739049517138913</v>
+        <v>0.06828469253293262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1070200289507974</v>
+        <v>0.1066017247847798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -5174,19 +5174,19 @@
         <v>126044</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108170</v>
+        <v>107826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144352</v>
+        <v>142917</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1551772666661177</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1331722411723146</v>
+        <v>0.1327484709919087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1777166241231237</v>
+        <v>0.1759495905353494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -5195,19 +5195,19 @@
         <v>194854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172526</v>
+        <v>170160</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221249</v>
+        <v>221037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1206276871515728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1068051925989838</v>
+        <v>0.1053405097360722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1369681825026064</v>
+        <v>0.1368369584649399</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>734263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717128</v>
+        <v>717464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748954</v>
+        <v>748235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9143170766241965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8929799710492027</v>
+        <v>0.893398275215221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.932609504828611</v>
+        <v>0.9317153074670683</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>864</v>
@@ -5245,19 +5245,19 @@
         <v>686215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667907</v>
+        <v>669342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704089</v>
+        <v>704433</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8448227333338822</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8222833758768763</v>
+        <v>0.824050409464651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8668277588276856</v>
+        <v>0.8672515290080914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1470</v>
@@ -5266,19 +5266,19 @@
         <v>1420478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1394083</v>
+        <v>1394295</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1442806</v>
+        <v>1445172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8793723128484271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8630318174973937</v>
+        <v>0.8631630415350602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8931948074010162</v>
+        <v>0.894659490263928</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>95904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80612</v>
+        <v>79404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115797</v>
+        <v>112884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09686618111662727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08142129226427997</v>
+        <v>0.08020133514238517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1169588930133864</v>
+        <v>0.114016943965531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>327</v>
@@ -5391,19 +5391,19 @@
         <v>207236</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184207</v>
+        <v>186558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229102</v>
+        <v>230908</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1851904714071319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1646117353243549</v>
+        <v>0.1667121757197488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2047310322531386</v>
+        <v>0.2063441454644316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>444</v>
@@ -5412,19 +5412,19 @@
         <v>303139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>275568</v>
+        <v>276197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337095</v>
+        <v>332797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1437289979192735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1306563533418214</v>
+        <v>0.1309547497668128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.15982841632032</v>
+        <v>0.1577906437284211</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>894158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>874265</v>
+        <v>877178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>909450</v>
+        <v>910658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9031338188833726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8830411069866135</v>
+        <v>0.8859830560344689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9185787077357201</v>
+        <v>0.9197986648576149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1235</v>
@@ -5462,19 +5462,19 @@
         <v>911805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>889939</v>
+        <v>888133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>934834</v>
+        <v>932483</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8148095285928683</v>
+        <v>0.8148095285928681</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7952689677468613</v>
+        <v>0.7936558545355685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8353882646756451</v>
+        <v>0.8332878242802511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2124</v>
@@ -5483,19 +5483,19 @@
         <v>1805965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1772009</v>
+        <v>1776307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1833536</v>
+        <v>1832907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8562710020807265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8401715836796808</v>
+        <v>0.8422093562715784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8693436466581788</v>
+        <v>0.8690452502331871</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>305311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08642261199445743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1076</v>
@@ -5608,19 +5608,19 @@
         <v>652472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1434</v>
@@ -5629,19 +5629,19 @@
         <v>957783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1317497022331892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3227451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3193891</v>
+        <v>3192618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3261414</v>
+        <v>3260007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9135773880055427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9040776859924906</v>
+        <v>0.903717177298512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9231910374791136</v>
+        <v>0.9227925652725276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4291</v>
@@ -5679,19 +5679,19 @@
         <v>3084482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3046631</v>
+        <v>3042585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3123117</v>
+        <v>3118021</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8253999413825344</v>
+        <v>0.8253999413825341</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8152713389463457</v>
+        <v>0.8141885969692918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8357386004954042</v>
+        <v>0.8343751005214698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7309</v>
@@ -5700,19 +5700,19 @@
         <v>6311933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6259232</v>
+        <v>6260264</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6359297</v>
+        <v>6362580</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8682502977668107</v>
+        <v>0.8682502977668105</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8610009344329157</v>
+        <v>0.8611428860182516</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8747655711703859</v>
+        <v>0.8752170916768842</v>
       </c>
     </row>
     <row r="18">
